--- a/public/assets/file/template_import_customer.xlsx
+++ b/public/assets/file/template_import_customer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arisk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\__loaylty-customer\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAF88E78-8CAE-4EFB-BD59-74C69180A2DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6545C29B-B590-4915-B244-70D1F5195698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1CA8CDA4-AFA5-4F93-A49D-C0EEEE4DECAA}"/>
   </bookViews>
@@ -93,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648283DA-555E-4C88-B9A7-133282581F7F}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I798"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A703" workbookViewId="0">
+      <selection activeCell="H781" sqref="H781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +457,2397 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H102" s="1"/>
+    </row>
+    <row r="103" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="1"/>
+    </row>
+    <row r="107" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="1"/>
+    </row>
+    <row r="111" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="1"/>
+    </row>
+    <row r="115" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="1"/>
+    </row>
+    <row r="116" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H116" s="1"/>
+    </row>
+    <row r="117" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="1"/>
+    </row>
+    <row r="118" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="1"/>
+    </row>
+    <row r="119" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H119" s="1"/>
+    </row>
+    <row r="120" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H120" s="1"/>
+    </row>
+    <row r="121" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H121" s="1"/>
+    </row>
+    <row r="122" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H122" s="1"/>
+    </row>
+    <row r="123" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H123" s="1"/>
+    </row>
+    <row r="124" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H124" s="1"/>
+    </row>
+    <row r="125" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H125" s="1"/>
+    </row>
+    <row r="126" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H126" s="1"/>
+    </row>
+    <row r="127" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H127" s="1"/>
+    </row>
+    <row r="128" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H128" s="1"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H129" s="1"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H130" s="1"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H131" s="1"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H132" s="1"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H133" s="1"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H134" s="1"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H135" s="1"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H136" s="1"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H137" s="1"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H138" s="1"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H139" s="1"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H140" s="1"/>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H141" s="1"/>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H142" s="1"/>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H144" s="1"/>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H145" s="1"/>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H146" s="1"/>
+    </row>
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H147" s="1"/>
+    </row>
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H148" s="1"/>
+    </row>
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H149" s="1"/>
+    </row>
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H150" s="1"/>
+    </row>
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H157" s="1"/>
+    </row>
+    <row r="158" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H158" s="1"/>
+    </row>
+    <row r="159" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H159" s="1"/>
+    </row>
+    <row r="160" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H160" s="1"/>
+    </row>
+    <row r="161" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H162" s="1"/>
+    </row>
+    <row r="163" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H163" s="1"/>
+    </row>
+    <row r="164" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H164" s="1"/>
+    </row>
+    <row r="165" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H165" s="1"/>
+    </row>
+    <row r="166" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H166" s="1"/>
+    </row>
+    <row r="167" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H167" s="1"/>
+    </row>
+    <row r="168" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H168" s="1"/>
+    </row>
+    <row r="169" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H169" s="1"/>
+    </row>
+    <row r="170" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H170" s="1"/>
+    </row>
+    <row r="171" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H171" s="1"/>
+    </row>
+    <row r="172" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H172" s="1"/>
+    </row>
+    <row r="173" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H173" s="1"/>
+    </row>
+    <row r="174" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H174" s="1"/>
+    </row>
+    <row r="175" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H175" s="1"/>
+    </row>
+    <row r="176" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H176" s="1"/>
+    </row>
+    <row r="177" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H177" s="1"/>
+    </row>
+    <row r="178" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H178" s="1"/>
+    </row>
+    <row r="179" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H179" s="1"/>
+    </row>
+    <row r="180" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H180" s="1"/>
+    </row>
+    <row r="181" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H181" s="1"/>
+    </row>
+    <row r="182" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H182" s="1"/>
+    </row>
+    <row r="183" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H183" s="1"/>
+    </row>
+    <row r="184" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H184" s="1"/>
+    </row>
+    <row r="185" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H185" s="1"/>
+    </row>
+    <row r="186" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H186" s="1"/>
+    </row>
+    <row r="187" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H187" s="1"/>
+    </row>
+    <row r="188" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H188" s="1"/>
+    </row>
+    <row r="189" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H189" s="1"/>
+    </row>
+    <row r="190" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H190" s="1"/>
+    </row>
+    <row r="191" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H191" s="1"/>
+    </row>
+    <row r="192" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H192" s="1"/>
+    </row>
+    <row r="193" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H193" s="1"/>
+    </row>
+    <row r="194" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H194" s="1"/>
+    </row>
+    <row r="195" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H195" s="1"/>
+    </row>
+    <row r="196" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H196" s="1"/>
+    </row>
+    <row r="197" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H197" s="1"/>
+    </row>
+    <row r="198" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H198" s="1"/>
+    </row>
+    <row r="199" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H199" s="1"/>
+    </row>
+    <row r="200" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H200" s="1"/>
+    </row>
+    <row r="201" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H201" s="1"/>
+    </row>
+    <row r="202" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H202" s="1"/>
+    </row>
+    <row r="203" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H203" s="1"/>
+    </row>
+    <row r="204" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H204" s="1"/>
+    </row>
+    <row r="205" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H205" s="1"/>
+    </row>
+    <row r="206" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H206" s="1"/>
+    </row>
+    <row r="207" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H207" s="1"/>
+    </row>
+    <row r="208" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H208" s="1"/>
+    </row>
+    <row r="209" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H209" s="1"/>
+    </row>
+    <row r="210" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H210" s="1"/>
+    </row>
+    <row r="211" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H211" s="1"/>
+    </row>
+    <row r="212" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H212" s="1"/>
+    </row>
+    <row r="213" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H213" s="1"/>
+    </row>
+    <row r="214" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H214" s="1"/>
+    </row>
+    <row r="215" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H215" s="1"/>
+    </row>
+    <row r="216" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H216" s="1"/>
+    </row>
+    <row r="217" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H217" s="1"/>
+    </row>
+    <row r="218" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H218" s="1"/>
+    </row>
+    <row r="219" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H219" s="1"/>
+    </row>
+    <row r="220" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H220" s="1"/>
+    </row>
+    <row r="221" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H221" s="1"/>
+    </row>
+    <row r="222" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H222" s="1"/>
+    </row>
+    <row r="223" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H223" s="1"/>
+    </row>
+    <row r="224" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H224" s="1"/>
+    </row>
+    <row r="225" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H225" s="1"/>
+    </row>
+    <row r="226" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H226" s="1"/>
+    </row>
+    <row r="227" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H227" s="1"/>
+    </row>
+    <row r="228" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H228" s="1"/>
+    </row>
+    <row r="229" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H229" s="1"/>
+    </row>
+    <row r="230" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H230" s="1"/>
+    </row>
+    <row r="231" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H231" s="1"/>
+    </row>
+    <row r="232" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H232" s="1"/>
+    </row>
+    <row r="233" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H233" s="1"/>
+    </row>
+    <row r="234" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H234" s="1"/>
+    </row>
+    <row r="235" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H235" s="1"/>
+    </row>
+    <row r="236" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H236" s="1"/>
+    </row>
+    <row r="237" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H237" s="1"/>
+    </row>
+    <row r="238" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H238" s="1"/>
+    </row>
+    <row r="239" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H239" s="1"/>
+    </row>
+    <row r="240" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H240" s="1"/>
+    </row>
+    <row r="241" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H241" s="1"/>
+    </row>
+    <row r="242" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H242" s="1"/>
+    </row>
+    <row r="243" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H243" s="1"/>
+    </row>
+    <row r="244" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H244" s="1"/>
+    </row>
+    <row r="245" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H245" s="1"/>
+    </row>
+    <row r="246" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H246" s="1"/>
+    </row>
+    <row r="247" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H247" s="1"/>
+    </row>
+    <row r="248" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H248" s="1"/>
+    </row>
+    <row r="249" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H249" s="1"/>
+    </row>
+    <row r="250" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H250" s="1"/>
+    </row>
+    <row r="251" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H251" s="1"/>
+    </row>
+    <row r="252" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H252" s="1"/>
+    </row>
+    <row r="253" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H253" s="1"/>
+    </row>
+    <row r="254" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H254" s="1"/>
+    </row>
+    <row r="255" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H255" s="1"/>
+    </row>
+    <row r="256" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H256" s="1"/>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H257" s="1"/>
+    </row>
+    <row r="258" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H258" s="1"/>
+    </row>
+    <row r="259" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H259" s="1"/>
+    </row>
+    <row r="260" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H260" s="1"/>
+    </row>
+    <row r="261" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H261" s="1"/>
+    </row>
+    <row r="262" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H262" s="1"/>
+    </row>
+    <row r="263" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H263" s="1"/>
+    </row>
+    <row r="264" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H264" s="1"/>
+    </row>
+    <row r="265" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H266" s="1"/>
+    </row>
+    <row r="267" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H267" s="1"/>
+    </row>
+    <row r="268" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H268" s="1"/>
+    </row>
+    <row r="269" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H269" s="1"/>
+    </row>
+    <row r="270" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H270" s="1"/>
+    </row>
+    <row r="271" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H271" s="1"/>
+    </row>
+    <row r="272" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H272" s="1"/>
+    </row>
+    <row r="273" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H274" s="1"/>
+    </row>
+    <row r="275" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H275" s="1"/>
+    </row>
+    <row r="276" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H276" s="1"/>
+    </row>
+    <row r="277" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H277" s="1"/>
+    </row>
+    <row r="278" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H278" s="1"/>
+    </row>
+    <row r="279" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H279" s="1"/>
+    </row>
+    <row r="280" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H280" s="1"/>
+    </row>
+    <row r="281" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H281" s="1"/>
+    </row>
+    <row r="282" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H282" s="1"/>
+    </row>
+    <row r="283" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H283" s="1"/>
+    </row>
+    <row r="284" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H284" s="1"/>
+    </row>
+    <row r="285" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H285" s="1"/>
+    </row>
+    <row r="286" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H286" s="1"/>
+    </row>
+    <row r="287" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H287" s="1"/>
+    </row>
+    <row r="288" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H288" s="1"/>
+    </row>
+    <row r="289" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H289" s="1"/>
+    </row>
+    <row r="290" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H290" s="1"/>
+    </row>
+    <row r="291" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H291" s="1"/>
+    </row>
+    <row r="292" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H292" s="1"/>
+    </row>
+    <row r="293" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H293" s="1"/>
+    </row>
+    <row r="294" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H294" s="1"/>
+    </row>
+    <row r="295" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H295" s="1"/>
+    </row>
+    <row r="296" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H296" s="1"/>
+    </row>
+    <row r="297" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H297" s="1"/>
+    </row>
+    <row r="298" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H298" s="1"/>
+    </row>
+    <row r="299" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H299" s="1"/>
+    </row>
+    <row r="300" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H300" s="1"/>
+    </row>
+    <row r="301" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H301" s="1"/>
+    </row>
+    <row r="302" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H302" s="1"/>
+    </row>
+    <row r="303" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H303" s="1"/>
+    </row>
+    <row r="304" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H304" s="1"/>
+    </row>
+    <row r="305" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H305" s="1"/>
+    </row>
+    <row r="306" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H306" s="1"/>
+    </row>
+    <row r="307" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H307" s="1"/>
+    </row>
+    <row r="308" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H308" s="1"/>
+    </row>
+    <row r="309" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H309" s="1"/>
+    </row>
+    <row r="310" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H310" s="1"/>
+    </row>
+    <row r="311" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H311" s="1"/>
+    </row>
+    <row r="312" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H312" s="1"/>
+    </row>
+    <row r="313" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H313" s="1"/>
+    </row>
+    <row r="314" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H314" s="1"/>
+    </row>
+    <row r="315" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H315" s="1"/>
+    </row>
+    <row r="316" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H316" s="1"/>
+    </row>
+    <row r="317" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H317" s="1"/>
+    </row>
+    <row r="318" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H318" s="1"/>
+    </row>
+    <row r="319" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H319" s="1"/>
+    </row>
+    <row r="320" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H320" s="1"/>
+    </row>
+    <row r="321" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H321" s="1"/>
+    </row>
+    <row r="322" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H322" s="1"/>
+    </row>
+    <row r="323" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H323" s="1"/>
+    </row>
+    <row r="324" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H324" s="1"/>
+    </row>
+    <row r="325" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H325" s="1"/>
+    </row>
+    <row r="326" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H326" s="1"/>
+    </row>
+    <row r="327" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H327" s="1"/>
+    </row>
+    <row r="328" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H328" s="1"/>
+    </row>
+    <row r="329" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H329" s="1"/>
+    </row>
+    <row r="330" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H330" s="1"/>
+    </row>
+    <row r="331" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H331" s="1"/>
+    </row>
+    <row r="332" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H332" s="1"/>
+    </row>
+    <row r="333" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H333" s="1"/>
+    </row>
+    <row r="334" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H334" s="1"/>
+    </row>
+    <row r="335" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H335" s="1"/>
+    </row>
+    <row r="336" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H336" s="1"/>
+    </row>
+    <row r="337" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H337" s="1"/>
+    </row>
+    <row r="338" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H338" s="1"/>
+    </row>
+    <row r="339" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H339" s="1"/>
+    </row>
+    <row r="340" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H340" s="1"/>
+    </row>
+    <row r="341" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H341" s="1"/>
+    </row>
+    <row r="342" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H342" s="1"/>
+    </row>
+    <row r="343" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H343" s="1"/>
+    </row>
+    <row r="344" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H344" s="1"/>
+    </row>
+    <row r="345" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H345" s="1"/>
+    </row>
+    <row r="346" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H346" s="1"/>
+    </row>
+    <row r="347" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H347" s="1"/>
+    </row>
+    <row r="348" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H348" s="1"/>
+    </row>
+    <row r="349" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H349" s="1"/>
+    </row>
+    <row r="350" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H350" s="1"/>
+    </row>
+    <row r="351" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H351" s="1"/>
+    </row>
+    <row r="352" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H352" s="1"/>
+    </row>
+    <row r="353" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H353" s="1"/>
+    </row>
+    <row r="354" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H354" s="1"/>
+    </row>
+    <row r="355" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H355" s="1"/>
+    </row>
+    <row r="356" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H356" s="1"/>
+    </row>
+    <row r="357" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H357" s="1"/>
+    </row>
+    <row r="358" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H358" s="1"/>
+    </row>
+    <row r="359" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H359" s="1"/>
+    </row>
+    <row r="360" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H360" s="1"/>
+    </row>
+    <row r="361" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H361" s="1"/>
+    </row>
+    <row r="362" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H362" s="1"/>
+    </row>
+    <row r="363" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H363" s="1"/>
+    </row>
+    <row r="364" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H364" s="1"/>
+    </row>
+    <row r="365" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H365" s="1"/>
+    </row>
+    <row r="366" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H366" s="1"/>
+    </row>
+    <row r="367" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H367" s="1"/>
+    </row>
+    <row r="368" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H368" s="1"/>
+    </row>
+    <row r="369" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H369" s="1"/>
+    </row>
+    <row r="370" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H370" s="1"/>
+    </row>
+    <row r="371" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H371" s="1"/>
+    </row>
+    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H372" s="1"/>
+    </row>
+    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H373" s="1"/>
+    </row>
+    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H374" s="1"/>
+    </row>
+    <row r="375" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H375" s="1"/>
+    </row>
+    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H376" s="1"/>
+    </row>
+    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H377" s="1"/>
+    </row>
+    <row r="378" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H378" s="1"/>
+    </row>
+    <row r="379" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H379" s="1"/>
+    </row>
+    <row r="380" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H380" s="1"/>
+    </row>
+    <row r="381" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H381" s="1"/>
+    </row>
+    <row r="382" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H382" s="1"/>
+    </row>
+    <row r="383" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H383" s="1"/>
+    </row>
+    <row r="384" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H384" s="1"/>
+    </row>
+    <row r="385" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H385" s="1"/>
+    </row>
+    <row r="386" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H386" s="1"/>
+    </row>
+    <row r="387" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H387" s="1"/>
+    </row>
+    <row r="388" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H388" s="1"/>
+    </row>
+    <row r="389" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H389" s="1"/>
+    </row>
+    <row r="390" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H390" s="1"/>
+    </row>
+    <row r="391" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H391" s="1"/>
+    </row>
+    <row r="392" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H392" s="1"/>
+    </row>
+    <row r="393" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H393" s="1"/>
+    </row>
+    <row r="394" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H394" s="1"/>
+    </row>
+    <row r="395" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H395" s="1"/>
+    </row>
+    <row r="396" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H396" s="1"/>
+    </row>
+    <row r="397" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H397" s="1"/>
+    </row>
+    <row r="398" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H398" s="1"/>
+    </row>
+    <row r="399" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H399" s="1"/>
+    </row>
+    <row r="400" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H400" s="1"/>
+    </row>
+    <row r="401" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H401" s="1"/>
+    </row>
+    <row r="402" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H402" s="1"/>
+    </row>
+    <row r="403" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H403" s="1"/>
+    </row>
+    <row r="404" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H404" s="1"/>
+    </row>
+    <row r="405" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H405" s="1"/>
+    </row>
+    <row r="406" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H406" s="1"/>
+    </row>
+    <row r="407" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H407" s="1"/>
+    </row>
+    <row r="408" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H408" s="1"/>
+    </row>
+    <row r="409" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H409" s="1"/>
+    </row>
+    <row r="410" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H410" s="1"/>
+    </row>
+    <row r="411" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H411" s="1"/>
+    </row>
+    <row r="412" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H412" s="1"/>
+    </row>
+    <row r="413" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H413" s="1"/>
+    </row>
+    <row r="414" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H414" s="1"/>
+    </row>
+    <row r="415" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H415" s="1"/>
+    </row>
+    <row r="416" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H416" s="1"/>
+    </row>
+    <row r="417" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H417" s="1"/>
+    </row>
+    <row r="418" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H418" s="1"/>
+    </row>
+    <row r="419" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H419" s="1"/>
+    </row>
+    <row r="420" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H420" s="1"/>
+    </row>
+    <row r="421" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H421" s="1"/>
+    </row>
+    <row r="422" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H422" s="1"/>
+    </row>
+    <row r="423" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H423" s="1"/>
+    </row>
+    <row r="424" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H424" s="1"/>
+    </row>
+    <row r="425" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H425" s="1"/>
+    </row>
+    <row r="426" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H426" s="1"/>
+    </row>
+    <row r="427" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H427" s="1"/>
+    </row>
+    <row r="428" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H428" s="1"/>
+    </row>
+    <row r="429" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H429" s="1"/>
+    </row>
+    <row r="430" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H430" s="1"/>
+    </row>
+    <row r="431" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H431" s="1"/>
+    </row>
+    <row r="432" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H432" s="1"/>
+    </row>
+    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H433" s="1"/>
+    </row>
+    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H434" s="1"/>
+    </row>
+    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H435" s="1"/>
+    </row>
+    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H436" s="1"/>
+    </row>
+    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H437" s="1"/>
+    </row>
+    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H438" s="1"/>
+    </row>
+    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H439" s="1"/>
+    </row>
+    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H440" s="1"/>
+    </row>
+    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H441" s="1"/>
+    </row>
+    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H442" s="1"/>
+    </row>
+    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H443" s="1"/>
+    </row>
+    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H444" s="1"/>
+    </row>
+    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H445" s="1"/>
+    </row>
+    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H446" s="1"/>
+    </row>
+    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H447" s="1"/>
+    </row>
+    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H448" s="1"/>
+    </row>
+    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H449" s="1"/>
+    </row>
+    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H450" s="1"/>
+    </row>
+    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H451" s="1"/>
+    </row>
+    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H452" s="1"/>
+    </row>
+    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H453" s="1"/>
+    </row>
+    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H454" s="1"/>
+    </row>
+    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H455" s="1"/>
+    </row>
+    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H456" s="1"/>
+    </row>
+    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H457" s="1"/>
+    </row>
+    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H458" s="1"/>
+    </row>
+    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H459" s="1"/>
+    </row>
+    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H460" s="1"/>
+    </row>
+    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H461" s="1"/>
+    </row>
+    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H462" s="1"/>
+    </row>
+    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H463" s="1"/>
+    </row>
+    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H464" s="1"/>
+    </row>
+    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H465" s="1"/>
+    </row>
+    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H466" s="1"/>
+    </row>
+    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H467" s="1"/>
+    </row>
+    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H468" s="1"/>
+    </row>
+    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H469" s="1"/>
+    </row>
+    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H470" s="1"/>
+    </row>
+    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H471" s="1"/>
+    </row>
+    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H472" s="1"/>
+    </row>
+    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H473" s="1"/>
+    </row>
+    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H474" s="1"/>
+    </row>
+    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H475" s="1"/>
+    </row>
+    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H476" s="1"/>
+    </row>
+    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H477" s="1"/>
+    </row>
+    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H478" s="1"/>
+    </row>
+    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H479" s="1"/>
+    </row>
+    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H480" s="1"/>
+    </row>
+    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H481" s="1"/>
+    </row>
+    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H482" s="1"/>
+    </row>
+    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H483" s="1"/>
+    </row>
+    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H484" s="1"/>
+    </row>
+    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H485" s="1"/>
+    </row>
+    <row r="486" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H486" s="1"/>
+    </row>
+    <row r="487" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H487" s="1"/>
+    </row>
+    <row r="488" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H488" s="1"/>
+    </row>
+    <row r="489" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H489" s="1"/>
+    </row>
+    <row r="490" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H490" s="1"/>
+    </row>
+    <row r="491" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H491" s="1"/>
+    </row>
+    <row r="492" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H492" s="1"/>
+    </row>
+    <row r="493" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H493" s="1"/>
+    </row>
+    <row r="494" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H494" s="1"/>
+    </row>
+    <row r="495" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H495" s="1"/>
+    </row>
+    <row r="496" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H496" s="1"/>
+    </row>
+    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H497" s="1"/>
+    </row>
+    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H498" s="1"/>
+    </row>
+    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H499" s="1"/>
+    </row>
+    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H500" s="1"/>
+    </row>
+    <row r="501" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H501" s="1"/>
+    </row>
+    <row r="502" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H502" s="1"/>
+    </row>
+    <row r="503" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H503" s="1"/>
+    </row>
+    <row r="504" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H504" s="1"/>
+    </row>
+    <row r="505" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H505" s="1"/>
+    </row>
+    <row r="506" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H506" s="1"/>
+    </row>
+    <row r="507" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H507" s="1"/>
+    </row>
+    <row r="508" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H508" s="1"/>
+    </row>
+    <row r="509" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H509" s="1"/>
+    </row>
+    <row r="510" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H510" s="1"/>
+    </row>
+    <row r="511" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H511" s="1"/>
+    </row>
+    <row r="512" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H512" s="1"/>
+    </row>
+    <row r="513" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H513" s="1"/>
+    </row>
+    <row r="514" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H514" s="1"/>
+    </row>
+    <row r="515" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H515" s="1"/>
+    </row>
+    <row r="516" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H516" s="1"/>
+    </row>
+    <row r="517" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H517" s="1"/>
+    </row>
+    <row r="518" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H518" s="1"/>
+    </row>
+    <row r="519" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H519" s="1"/>
+    </row>
+    <row r="520" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H520" s="1"/>
+    </row>
+    <row r="521" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H521" s="1"/>
+    </row>
+    <row r="522" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H522" s="1"/>
+    </row>
+    <row r="523" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H523" s="1"/>
+    </row>
+    <row r="524" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H524" s="1"/>
+    </row>
+    <row r="525" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H525" s="1"/>
+    </row>
+    <row r="526" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H526" s="1"/>
+    </row>
+    <row r="527" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H527" s="1"/>
+    </row>
+    <row r="528" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H528" s="1"/>
+    </row>
+    <row r="529" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H529" s="1"/>
+    </row>
+    <row r="530" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H530" s="1"/>
+    </row>
+    <row r="531" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H531" s="1"/>
+    </row>
+    <row r="532" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H532" s="1"/>
+    </row>
+    <row r="533" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H533" s="1"/>
+    </row>
+    <row r="534" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H534" s="1"/>
+    </row>
+    <row r="535" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H535" s="1"/>
+    </row>
+    <row r="536" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H536" s="1"/>
+    </row>
+    <row r="537" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H537" s="1"/>
+    </row>
+    <row r="538" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H538" s="1"/>
+    </row>
+    <row r="539" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H539" s="1"/>
+    </row>
+    <row r="540" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H540" s="1"/>
+    </row>
+    <row r="541" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H541" s="1"/>
+    </row>
+    <row r="542" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H542" s="1"/>
+    </row>
+    <row r="543" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H543" s="1"/>
+    </row>
+    <row r="544" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H544" s="1"/>
+    </row>
+    <row r="545" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H545" s="1"/>
+    </row>
+    <row r="546" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H546" s="1"/>
+    </row>
+    <row r="547" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H547" s="1"/>
+    </row>
+    <row r="548" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H548" s="1"/>
+    </row>
+    <row r="549" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H549" s="1"/>
+    </row>
+    <row r="550" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H550" s="1"/>
+    </row>
+    <row r="551" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H551" s="1"/>
+    </row>
+    <row r="552" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H552" s="1"/>
+    </row>
+    <row r="553" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H553" s="1"/>
+    </row>
+    <row r="554" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H554" s="1"/>
+    </row>
+    <row r="555" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H555" s="1"/>
+    </row>
+    <row r="556" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H556" s="1"/>
+    </row>
+    <row r="557" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H557" s="1"/>
+    </row>
+    <row r="558" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H558" s="1"/>
+    </row>
+    <row r="559" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H559" s="1"/>
+    </row>
+    <row r="560" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H560" s="1"/>
+    </row>
+    <row r="561" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H561" s="1"/>
+    </row>
+    <row r="562" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H562" s="1"/>
+    </row>
+    <row r="563" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H563" s="1"/>
+    </row>
+    <row r="564" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H564" s="1"/>
+    </row>
+    <row r="565" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H565" s="1"/>
+    </row>
+    <row r="566" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H566" s="1"/>
+    </row>
+    <row r="567" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H567" s="1"/>
+    </row>
+    <row r="568" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H568" s="1"/>
+    </row>
+    <row r="569" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H569" s="1"/>
+    </row>
+    <row r="570" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H570" s="1"/>
+    </row>
+    <row r="571" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H571" s="1"/>
+    </row>
+    <row r="572" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H572" s="1"/>
+    </row>
+    <row r="573" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H573" s="1"/>
+    </row>
+    <row r="574" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H574" s="1"/>
+    </row>
+    <row r="575" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H575" s="1"/>
+    </row>
+    <row r="576" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H576" s="1"/>
+    </row>
+    <row r="577" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H577" s="1"/>
+    </row>
+    <row r="578" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H578" s="1"/>
+    </row>
+    <row r="579" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H579" s="1"/>
+    </row>
+    <row r="580" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H580" s="1"/>
+    </row>
+    <row r="581" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H581" s="1"/>
+    </row>
+    <row r="582" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H582" s="1"/>
+    </row>
+    <row r="583" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H583" s="1"/>
+    </row>
+    <row r="584" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H584" s="1"/>
+    </row>
+    <row r="585" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H585" s="1"/>
+    </row>
+    <row r="586" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H586" s="1"/>
+    </row>
+    <row r="587" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H587" s="1"/>
+    </row>
+    <row r="588" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H588" s="1"/>
+    </row>
+    <row r="589" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H589" s="1"/>
+    </row>
+    <row r="590" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H590" s="1"/>
+    </row>
+    <row r="591" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H591" s="1"/>
+    </row>
+    <row r="592" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H592" s="1"/>
+    </row>
+    <row r="593" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H593" s="1"/>
+    </row>
+    <row r="594" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H594" s="1"/>
+    </row>
+    <row r="595" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H595" s="1"/>
+    </row>
+    <row r="596" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H596" s="1"/>
+    </row>
+    <row r="597" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H597" s="1"/>
+    </row>
+    <row r="598" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H598" s="1"/>
+    </row>
+    <row r="599" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H599" s="1"/>
+    </row>
+    <row r="600" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H600" s="1"/>
+    </row>
+    <row r="601" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H601" s="1"/>
+    </row>
+    <row r="602" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H602" s="1"/>
+    </row>
+    <row r="603" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H603" s="1"/>
+    </row>
+    <row r="604" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H604" s="1"/>
+    </row>
+    <row r="605" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H605" s="1"/>
+    </row>
+    <row r="606" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H606" s="1"/>
+    </row>
+    <row r="607" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H607" s="1"/>
+    </row>
+    <row r="608" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H608" s="1"/>
+    </row>
+    <row r="609" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H609" s="1"/>
+    </row>
+    <row r="610" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H610" s="1"/>
+    </row>
+    <row r="611" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H611" s="1"/>
+    </row>
+    <row r="612" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H612" s="1"/>
+    </row>
+    <row r="613" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H613" s="1"/>
+    </row>
+    <row r="614" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H614" s="1"/>
+    </row>
+    <row r="615" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H615" s="1"/>
+    </row>
+    <row r="616" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H616" s="1"/>
+    </row>
+    <row r="617" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H617" s="1"/>
+    </row>
+    <row r="618" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H618" s="1"/>
+    </row>
+    <row r="619" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H619" s="1"/>
+    </row>
+    <row r="620" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H620" s="1"/>
+    </row>
+    <row r="621" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H621" s="1"/>
+    </row>
+    <row r="622" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H622" s="1"/>
+    </row>
+    <row r="623" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H623" s="1"/>
+    </row>
+    <row r="624" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H624" s="1"/>
+    </row>
+    <row r="625" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H625" s="1"/>
+    </row>
+    <row r="626" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H626" s="1"/>
+    </row>
+    <row r="627" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H627" s="1"/>
+    </row>
+    <row r="628" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H628" s="1"/>
+    </row>
+    <row r="629" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H629" s="1"/>
+    </row>
+    <row r="630" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H630" s="1"/>
+    </row>
+    <row r="631" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H631" s="1"/>
+    </row>
+    <row r="632" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H632" s="1"/>
+    </row>
+    <row r="633" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H633" s="1"/>
+    </row>
+    <row r="634" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H634" s="1"/>
+    </row>
+    <row r="635" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H635" s="1"/>
+    </row>
+    <row r="636" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H636" s="1"/>
+    </row>
+    <row r="637" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H637" s="1"/>
+    </row>
+    <row r="638" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H638" s="1"/>
+    </row>
+    <row r="639" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H639" s="1"/>
+    </row>
+    <row r="640" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H640" s="1"/>
+    </row>
+    <row r="641" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H641" s="1"/>
+    </row>
+    <row r="642" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H642" s="1"/>
+    </row>
+    <row r="643" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H643" s="1"/>
+    </row>
+    <row r="644" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H644" s="1"/>
+    </row>
+    <row r="645" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H645" s="1"/>
+    </row>
+    <row r="646" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H646" s="1"/>
+    </row>
+    <row r="647" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H647" s="1"/>
+    </row>
+    <row r="648" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H648" s="1"/>
+    </row>
+    <row r="649" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H649" s="1"/>
+    </row>
+    <row r="650" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H650" s="1"/>
+    </row>
+    <row r="651" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H651" s="1"/>
+    </row>
+    <row r="652" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H652" s="1"/>
+    </row>
+    <row r="653" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H653" s="1"/>
+    </row>
+    <row r="654" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H654" s="1"/>
+    </row>
+    <row r="655" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H655" s="1"/>
+    </row>
+    <row r="656" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H656" s="1"/>
+    </row>
+    <row r="657" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H657" s="1"/>
+    </row>
+    <row r="658" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H658" s="1"/>
+    </row>
+    <row r="659" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H659" s="1"/>
+    </row>
+    <row r="660" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H660" s="1"/>
+    </row>
+    <row r="661" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H661" s="1"/>
+    </row>
+    <row r="662" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H662" s="1"/>
+    </row>
+    <row r="663" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H663" s="1"/>
+    </row>
+    <row r="664" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H664" s="1"/>
+    </row>
+    <row r="665" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H665" s="1"/>
+    </row>
+    <row r="666" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H666" s="1"/>
+    </row>
+    <row r="667" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H667" s="1"/>
+    </row>
+    <row r="668" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H668" s="1"/>
+    </row>
+    <row r="669" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H669" s="1"/>
+    </row>
+    <row r="670" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H670" s="1"/>
+    </row>
+    <row r="671" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H671" s="1"/>
+    </row>
+    <row r="672" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H672" s="1"/>
+    </row>
+    <row r="673" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H673" s="1"/>
+    </row>
+    <row r="674" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H674" s="1"/>
+    </row>
+    <row r="675" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H675" s="1"/>
+    </row>
+    <row r="676" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H676" s="1"/>
+    </row>
+    <row r="677" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H677" s="1"/>
+    </row>
+    <row r="678" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H678" s="1"/>
+    </row>
+    <row r="679" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H679" s="1"/>
+    </row>
+    <row r="680" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H680" s="1"/>
+    </row>
+    <row r="681" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H681" s="1"/>
+    </row>
+    <row r="682" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H682" s="1"/>
+    </row>
+    <row r="683" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H683" s="1"/>
+    </row>
+    <row r="684" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H684" s="1"/>
+    </row>
+    <row r="685" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H685" s="1"/>
+    </row>
+    <row r="686" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H686" s="1"/>
+    </row>
+    <row r="687" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H687" s="1"/>
+    </row>
+    <row r="688" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H688" s="1"/>
+    </row>
+    <row r="689" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H689" s="1"/>
+    </row>
+    <row r="690" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H690" s="1"/>
+    </row>
+    <row r="691" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H691" s="1"/>
+    </row>
+    <row r="692" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H692" s="1"/>
+    </row>
+    <row r="693" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H693" s="1"/>
+    </row>
+    <row r="694" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H694" s="1"/>
+    </row>
+    <row r="695" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H695" s="1"/>
+    </row>
+    <row r="696" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H696" s="1"/>
+    </row>
+    <row r="697" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H697" s="1"/>
+    </row>
+    <row r="698" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H698" s="1"/>
+    </row>
+    <row r="699" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H699" s="1"/>
+    </row>
+    <row r="700" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H700" s="1"/>
+    </row>
+    <row r="701" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H701" s="1"/>
+    </row>
+    <row r="702" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H702" s="1"/>
+    </row>
+    <row r="703" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H703" s="1"/>
+    </row>
+    <row r="704" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H704" s="1"/>
+    </row>
+    <row r="705" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H705" s="1"/>
+    </row>
+    <row r="706" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H706" s="1"/>
+    </row>
+    <row r="707" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H707" s="1"/>
+    </row>
+    <row r="708" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H708" s="1"/>
+    </row>
+    <row r="709" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H709" s="1"/>
+    </row>
+    <row r="710" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H710" s="1"/>
+    </row>
+    <row r="711" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H711" s="1"/>
+    </row>
+    <row r="712" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H712" s="1"/>
+    </row>
+    <row r="713" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H713" s="1"/>
+    </row>
+    <row r="714" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H714" s="1"/>
+    </row>
+    <row r="715" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H715" s="1"/>
+    </row>
+    <row r="716" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H716" s="1"/>
+    </row>
+    <row r="717" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H717" s="1"/>
+    </row>
+    <row r="718" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H718" s="1"/>
+    </row>
+    <row r="719" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H719" s="1"/>
+    </row>
+    <row r="720" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H720" s="1"/>
+    </row>
+    <row r="721" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H721" s="1"/>
+    </row>
+    <row r="722" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H722" s="1"/>
+    </row>
+    <row r="723" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H723" s="1"/>
+    </row>
+    <row r="724" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H724" s="1"/>
+    </row>
+    <row r="725" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H725" s="1"/>
+    </row>
+    <row r="726" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H726" s="1"/>
+    </row>
+    <row r="727" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H727" s="1"/>
+    </row>
+    <row r="728" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H728" s="1"/>
+    </row>
+    <row r="729" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H729" s="1"/>
+    </row>
+    <row r="730" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H730" s="1"/>
+    </row>
+    <row r="731" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H731" s="1"/>
+    </row>
+    <row r="732" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H732" s="1"/>
+    </row>
+    <row r="733" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H733" s="1"/>
+    </row>
+    <row r="734" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H734" s="1"/>
+    </row>
+    <row r="735" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H735" s="1"/>
+    </row>
+    <row r="736" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H736" s="1"/>
+    </row>
+    <row r="737" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H737" s="1"/>
+    </row>
+    <row r="738" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H738" s="1"/>
+    </row>
+    <row r="739" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H739" s="1"/>
+    </row>
+    <row r="740" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H740" s="1"/>
+    </row>
+    <row r="741" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H741" s="1"/>
+    </row>
+    <row r="742" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H742" s="1"/>
+    </row>
+    <row r="743" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H743" s="1"/>
+    </row>
+    <row r="744" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H744" s="1"/>
+    </row>
+    <row r="745" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H745" s="1"/>
+    </row>
+    <row r="746" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H746" s="1"/>
+    </row>
+    <row r="747" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H747" s="1"/>
+    </row>
+    <row r="748" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H748" s="1"/>
+    </row>
+    <row r="749" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H749" s="1"/>
+    </row>
+    <row r="750" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H750" s="1"/>
+    </row>
+    <row r="751" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H751" s="1"/>
+    </row>
+    <row r="752" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H752" s="1"/>
+    </row>
+    <row r="753" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H753" s="1"/>
+    </row>
+    <row r="754" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H754" s="1"/>
+    </row>
+    <row r="755" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H755" s="1"/>
+    </row>
+    <row r="756" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H756" s="1"/>
+    </row>
+    <row r="757" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H757" s="1"/>
+    </row>
+    <row r="758" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H758" s="1"/>
+    </row>
+    <row r="759" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H759" s="1"/>
+    </row>
+    <row r="760" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H760" s="1"/>
+    </row>
+    <row r="761" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H761" s="1"/>
+    </row>
+    <row r="762" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H762" s="1"/>
+    </row>
+    <row r="763" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H763" s="1"/>
+    </row>
+    <row r="764" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H764" s="1"/>
+    </row>
+    <row r="765" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H765" s="1"/>
+    </row>
+    <row r="766" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H766" s="1"/>
+    </row>
+    <row r="767" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H767" s="1"/>
+    </row>
+    <row r="768" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H768" s="1"/>
+    </row>
+    <row r="769" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H769" s="1"/>
+    </row>
+    <row r="770" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H770" s="1"/>
+    </row>
+    <row r="771" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H771" s="1"/>
+    </row>
+    <row r="772" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H772" s="1"/>
+    </row>
+    <row r="773" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H773" s="1"/>
+    </row>
+    <row r="774" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H774" s="1"/>
+    </row>
+    <row r="775" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H775" s="1"/>
+    </row>
+    <row r="776" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H776" s="1"/>
+    </row>
+    <row r="777" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H777" s="1"/>
+    </row>
+    <row r="778" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H778" s="1"/>
+    </row>
+    <row r="779" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H779" s="1"/>
+    </row>
+    <row r="780" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H780" s="1"/>
+    </row>
+    <row r="781" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H781" s="1"/>
+    </row>
+    <row r="782" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H782" s="1"/>
+    </row>
+    <row r="783" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H783" s="1"/>
+    </row>
+    <row r="784" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H784" s="1"/>
+    </row>
+    <row r="785" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H785" s="1"/>
+    </row>
+    <row r="786" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H786" s="1"/>
+    </row>
+    <row r="787" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H787" s="1"/>
+    </row>
+    <row r="788" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H788" s="1"/>
+    </row>
+    <row r="789" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H789" s="1"/>
+    </row>
+    <row r="790" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H790" s="1"/>
+    </row>
+    <row r="791" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H791" s="1"/>
+    </row>
+    <row r="792" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H792" s="1"/>
+    </row>
+    <row r="793" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H793" s="1"/>
+    </row>
+    <row r="794" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H794" s="1"/>
+    </row>
+    <row r="795" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H795" s="1"/>
+    </row>
+    <row r="796" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H796" s="1"/>
+    </row>
+    <row r="797" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H797" s="1"/>
+    </row>
+    <row r="798" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H798" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
